--- a/output/tables/table_VI_smoothed_hp.xlsx
+++ b/output/tables/table_VI_smoothed_hp.xlsx
@@ -799,19 +799,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001289508310579767</v>
+        <v>0.00139896070190236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004805799315065706</v>
+        <v>0.0005147612929407816</v>
       </c>
       <c r="D2" t="n">
-        <v>2.683233789095782</v>
+        <v>2.717688219932451</v>
       </c>
       <c r="E2" t="n">
         <v>762</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007449751263154392</v>
+        <v>0.006723478221694945</v>
       </c>
     </row>
     <row r="3">
@@ -821,19 +821,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0007552188471997691</v>
+        <v>0.003816549186643761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003197761173870831</v>
+        <v>0.002179130874572241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2361711229002104</v>
+        <v>1.751408890203963</v>
       </c>
       <c r="E3" t="n">
         <v>762</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8133634352540098</v>
+        <v>0.08027834234504594</v>
       </c>
     </row>
     <row r="4">
@@ -843,19 +843,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001288547032177575</v>
+        <v>3.71303743288391e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006868336501994911</v>
+        <v>7.619784826803497e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1876068581967869</v>
+        <v>0.4872890137032296</v>
       </c>
       <c r="E4" t="n">
         <v>762</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8512348589485177</v>
+        <v>0.62619386549603</v>
       </c>
     </row>
     <row r="5">
@@ -865,19 +865,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05111688667305486</v>
+        <v>-0.04308288904608475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02331988758830966</v>
+        <v>0.02336736078137091</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.191986838679271</v>
+        <v>-1.843720797105662</v>
       </c>
       <c r="E5" t="n">
         <v>762</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0286827015713802</v>
+        <v>0.0656124520544703</v>
       </c>
     </row>
     <row r="6">
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.001258209819239155</v>
+        <v>-0.001893755765436276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001667803816639361</v>
+        <v>0.001536280466711597</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7544111643625199</v>
+        <v>-1.232688826337715</v>
       </c>
       <c r="E6" t="n">
         <v>762</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4508357495656261</v>
+        <v>0.2180725566741846</v>
       </c>
     </row>
     <row r="7">
@@ -909,19 +909,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01002685935852012</v>
+        <v>-0.01055493986138404</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01067603712561869</v>
+        <v>0.01058291396871026</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9391930020980562</v>
+        <v>-0.9973566725186539</v>
       </c>
       <c r="E7" t="n">
         <v>762</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3479296574277422</v>
+        <v>0.3189084328353542</v>
       </c>
     </row>
   </sheetData>
@@ -1304,19 +1304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00145556658271188</v>
+        <v>0.001557330510221606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004343030642582528</v>
+        <v>0.0004710798160171154</v>
       </c>
       <c r="D2" t="n">
-        <v>3.351499684207491</v>
+        <v>3.305873988379551</v>
       </c>
       <c r="E2" t="n">
         <v>762</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0008434279672528966</v>
+        <v>0.0009911892746536921</v>
       </c>
     </row>
     <row r="3">
@@ -1326,19 +1326,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004744918891946288</v>
+        <v>0.003405307476363214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002751765049275163</v>
+        <v>0.002766347451889077</v>
       </c>
       <c r="D3" t="n">
-        <v>1.724318321869862</v>
+        <v>1.230976056184774</v>
       </c>
       <c r="E3" t="n">
         <v>762</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08505647887316092</v>
+        <v>0.2187121300457833</v>
       </c>
     </row>
     <row r="4">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.576533613179318e-05</v>
+        <v>-1.000805542845506e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006977585767277877</v>
+        <v>8.182330237442503e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0369258608795931</v>
+        <v>-1.223130225502022</v>
       </c>
       <c r="E4" t="n">
         <v>762</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9705538037027732</v>
+        <v>0.2216591352748014</v>
       </c>
     </row>
     <row r="5">
@@ -1370,19 +1370,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0835070262954089</v>
+        <v>-0.08753870454905542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02404452029675394</v>
+        <v>0.02405302788003629</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.473016939609419</v>
+        <v>-3.639404776215781</v>
       </c>
       <c r="E5" t="n">
         <v>762</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005437223639124245</v>
+        <v>0.0002917381228093596</v>
       </c>
     </row>
     <row r="6">
@@ -1392,19 +1392,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.002910630024323931</v>
+        <v>-0.003025620178371164</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001542667725403152</v>
+        <v>0.001517545525851809</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.886751097721504</v>
+        <v>-1.993759084540717</v>
       </c>
       <c r="E6" t="n">
         <v>762</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05957425056642096</v>
+        <v>0.04653488309234621</v>
       </c>
     </row>
     <row r="7">
@@ -1414,19 +1414,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01591833067867365</v>
+        <v>0.01835014669148486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01106812329069377</v>
+        <v>0.01098131756026687</v>
       </c>
       <c r="D7" t="n">
-        <v>1.438214073026996</v>
+        <v>1.67103324266664</v>
       </c>
       <c r="E7" t="n">
         <v>762</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1507844250416146</v>
+        <v>0.09512625991400481</v>
       </c>
     </row>
   </sheetData>
